--- a/Excel/Datas/启动配置/StartMachineConfig.xlsx
+++ b/Excel/Datas/启动配置/StartMachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\creator\CT\Excel\Datas\启动配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD9038A-8652-45E4-8354-ED71B961D0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040ECF4D-9C3E-4925-92A3-82A46AD07526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -81,6 +81,26 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0.16.10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端的机器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己电脑机器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.210.183</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -292,6 +312,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -586,7 +609,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -622,14 +645,16 @@
       <c r="E1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="8"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -714,8 +739,8 @@
       <c r="I3" s="4"/>
       <c r="J3" s="10"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="8"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -837,8 +862,8 @@
       <c r="B6" s="19">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>15</v>
+      <c r="C6" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>15</v>
@@ -846,7 +871,9 @@
       <c r="E6" s="20">
         <v>10123</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="21" t="s">
+        <v>20</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="I6" s="13"/>
       <c r="K6" s="13"/>
@@ -854,11 +881,21 @@
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="19">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="20">
+        <v>10123</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="I7" s="13"/>
       <c r="K7" s="13"/>

--- a/Excel/Datas/启动配置/StartMachineConfig.xlsx
+++ b/Excel/Datas/启动配置/StartMachineConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\creator\CT\Excel\Datas\启动配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040ECF4D-9C3E-4925-92A3-82A46AD07526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36245F2-CF64-44FF-BF42-F5A4696D856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -97,10 +97,6 @@
   </si>
   <si>
     <t>自己电脑机器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.210.183</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +605,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -862,8 +858,8 @@
       <c r="B6" s="19">
         <v>1</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>21</v>
+      <c r="C6" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>15</v>
